--- a/DOC/HR2ファイル資料.xlsx
+++ b/DOC/HR2ファイル資料.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\学習\HR2\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93918B09-C00C-4A8B-B0D3-1E73080D127E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA399256-72BF-4BEC-9899-B7E42A5A6238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="161">
   <si>
     <t>NO.</t>
     <phoneticPr fontId="1"/>
@@ -1031,6 +1031,20 @@
     <rPh sb="3" eb="5">
       <t>ジョウゲン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;div class="result_line"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul class="family_line"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class="name"&gt;&lt;a href="/JRADB/accessU.html?CNAME=pw01dud002021105048/CD"&gt;ゴージョニーゴー&lt;/a&gt;&lt;/div&gt;&lt;div class="odds"&gt;&lt;div class="odds_line"&gt;&lt;span class="num"&gt;&lt;strong&gt;40.8&lt;/strong&gt;&lt;/span&gt;&lt;span class="pop_rank"&gt;(11&lt;span&gt;番人気&lt;/span&gt;)&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;div class="cell weight"&gt;514kg&lt;span class="transition"&gt;(-2)&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;p class="owner"&gt;藤田 晋&lt;/p&gt;&lt;p class="trainer"&gt;&lt;a href="#" onclick="return doAction('/JRADB/accessC.html', 'pw05cmk001184/43');"&gt;四位 洋文&lt;/a&gt;&lt;span class="division"&gt;(栗東)&lt;/span&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3154,14 +3168,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A86:A89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M92" sqref="M92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="73" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -12926,11 +12961,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="J1:N1"/>
@@ -12938,6 +12968,11 @@
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DOC/HR2ファイル資料.xlsx
+++ b/DOC/HR2ファイル資料.xlsx
@@ -1,41 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\学習\HR2\DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB10AC7-889D-4CE0-8E58-281ECFDE6993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE37DF5-8B1D-4DE7-8DAC-8997DFB7D5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="競走馬情報" sheetId="21" r:id="rId1"/>
-    <sheet name="出馬表１" sheetId="22" r:id="rId2"/>
-    <sheet name="出馬表２" sheetId="23" r:id="rId3"/>
+    <sheet name="spanScore分布" sheetId="24" r:id="rId2"/>
+    <sheet name="dateScore分布" sheetId="25" r:id="rId3"/>
+    <sheet name="出馬表１" sheetId="22" r:id="rId4"/>
+    <sheet name="出馬表２" sheetId="23" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>&lt;div class="result_line"&gt;</t>
   </si>
@@ -48,6 +37,56 @@
   </si>
   <si>
     <t>&lt;div class="cell weight"&gt;514kg&lt;span class="transition"&gt;(-2)&lt;/span&gt;&lt;/div&gt;&lt;/div&gt;&lt;p class="owner"&gt;藤田 晋&lt;/p&gt;&lt;p class="trainer"&gt;&lt;a href="#" onclick="return doAction('/JRADB/accessC.html', 'pw05cmk001184/43');"&gt;四位 洋文&lt;/a&gt;&lt;span class="division"&gt;(栗東)&lt;/span&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１着</t>
+    <rPh sb="1" eb="2">
+      <t>チャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>８着</t>
+    <rPh sb="1" eb="2">
+      <t>チャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14着</t>
+    <rPh sb="2" eb="3">
+      <t>チャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8着</t>
+    <rPh sb="1" eb="2">
+      <t>チャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１４着</t>
+    <rPh sb="2" eb="3">
+      <t>チャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２着</t>
+    <rPh sb="1" eb="2">
+      <t>チャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S61で1-0-0-0は28/120</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d61で1-0-0-0は23/32</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -204,6 +243,504 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{749334E2-E7D1-A4E7-B90C-39DF61116FC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="254000"/>
+          <a:ext cx="4010025" cy="9350375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>187325</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE7393B-A1DF-4C1D-506D-C160DF0FF4C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3949700" y="292100"/>
+          <a:ext cx="3095625" cy="9331325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAD5550-79CF-2396-156D-4BB38CDB888C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6896100" y="266700"/>
+          <a:ext cx="2638425" cy="9369425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CFAD2A-903A-50A3-3EEE-645A310B014F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9525000" y="266700"/>
+          <a:ext cx="2524125" cy="9369425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B59DAD-98CD-8C63-21EF-D1FB19E07A47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="165100"/>
+          <a:ext cx="7515225" cy="9172575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5325584-2669-3D11-A202-2FAC8168CC99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7454900" y="190500"/>
+          <a:ext cx="5667375" cy="9191625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0DA20E4-E9AD-541B-AE73-900E08E63B64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13042900" y="165100"/>
+          <a:ext cx="4810125" cy="9369425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED0CC30-115D-03AE-15D9-C0F5B2D551C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17792700" y="215900"/>
+          <a:ext cx="3019425" cy="9210675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -290,7 +827,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -734,7 +1271,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
@@ -748,6 +1285,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0112C278-CD9C-42F8-A928-A90679947456}">
+  <dimension ref="A1:O55"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A188888-7C6D-45C3-8CFB-3D9FDA9FA8B2}">
+  <dimension ref="A1:AA55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C6B381-DEF0-4C57-BF89-FEA179701AFE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -770,7 +1379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13529D06-CA38-4896-A0B5-1F7A2D09B453}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
